--- a/R_C14_DADA2/3_Phyloseq output and figures/init_files/colours_cycle.xlsx
+++ b/R_C14_DADA2/3_Phyloseq output and figures/init_files/colours_cycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/init_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/3_Phyloseq output and figures/init_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2571932-B76D-AE4B-83A3-3765548EF74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC3489-B14E-2040-8589-81EEFED386E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32780" yWindow="-5140" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{9959AD80-3573-194E-BAC2-C518CF80D496}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19900" xr2:uid="{9959AD80-3573-194E-BAC2-C518CF80D496}"/>
   </bookViews>
   <sheets>
     <sheet name="cycle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>cycle</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>#A50F15</t>
+  </si>
+  <si>
+    <t>SA-Sc</t>
   </si>
 </sst>
 </file>
@@ -205,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245E3022-FA4C-1649-9F6C-42EECD9F5BD9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +538,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -543,7 +546,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -566,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B979CE36-AB68-0C41-BB73-F9CAC39783C9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
